--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_6.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_0</t>
+          <t>model_24_6_11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999939654991553</v>
+        <v>0.9999768630203687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999264672508922</v>
+        <v>0.9990126442023941</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999334091870092</v>
+        <v>0.9999280926576588</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999977926674067</v>
+        <v>0.999897900882714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999973883172155</v>
+        <v>0.9999191244750423</v>
       </c>
       <c r="G2" t="n">
-        <v>5.632941654556976e-05</v>
+        <v>2.159735488977295e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006863959357748604</v>
+        <v>0.0009216532971546095</v>
       </c>
       <c r="I2" t="n">
-        <v>3.251441234142906e-05</v>
+        <v>3.326962136289426e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.610648518205646e-06</v>
+        <v>8.300239308277513e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.706253042981735e-05</v>
+        <v>5.813600722283469e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003863275378370698</v>
+        <v>0.000332661122257156</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007505292568952243</v>
+        <v>0.004647295438184768</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000085192953102</v>
+        <v>1.000032663971244</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007824808411709972</v>
+        <v>0.004845140426216067</v>
       </c>
       <c r="P2" t="n">
-        <v>101.5685873258068</v>
+        <v>103.4858794191593</v>
       </c>
       <c r="Q2" t="n">
-        <v>151.542496145403</v>
+        <v>153.4597882387556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_1</t>
+          <t>model_24_6_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999500237542434</v>
+        <v>0.9999781421478405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992502209861918</v>
+        <v>0.9990125866316815</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999304549242634</v>
+        <v>0.9999233892277067</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999993764150918</v>
+        <v>0.9999054306483658</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999705294983154</v>
+        <v>0.9999218686711212</v>
       </c>
       <c r="G3" t="n">
-        <v>4.665063171020878e-05</v>
+        <v>2.040334554206972e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006998857978950405</v>
+        <v>0.0009217070368877494</v>
       </c>
       <c r="I3" t="n">
-        <v>3.395689536227903e-05</v>
+        <v>3.544577373505011e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.550180210481043e-06</v>
+        <v>7.68810025647921e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.925353778638004e-05</v>
+        <v>5.616338814992111e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003837292088711601</v>
+        <v>0.0003267085500262776</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006830126771166753</v>
+        <v>0.00451700625880347</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000070554699892</v>
+        <v>1.000030858144225</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007120899408126879</v>
+        <v>0.004709304566732725</v>
       </c>
       <c r="P3" t="n">
-        <v>101.9456481785581</v>
+        <v>103.5996233467998</v>
       </c>
       <c r="Q3" t="n">
-        <v>151.9195569981543</v>
+        <v>153.573532166396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_2</t>
+          <t>model_24_6_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999578389729231</v>
+        <v>0.9999753021803861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992328403704809</v>
+        <v>0.9990125535301961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999924943953692</v>
+        <v>0.9999331698850833</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999989814724509</v>
+        <v>0.9998891193107249</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999662645821094</v>
+        <v>0.9999157927149213</v>
       </c>
       <c r="G4" t="n">
-        <v>3.935546812111218e-05</v>
+        <v>2.305433050062168e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007161098397402647</v>
+        <v>0.0009217379356713844</v>
       </c>
       <c r="I4" t="n">
-        <v>3.664774656998106e-05</v>
+        <v>3.092052280790863e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>7.432001379208238e-06</v>
+        <v>9.014145078961644e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>2.203987397459465e-05</v>
+        <v>6.053098679876254e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003804415362344626</v>
+        <v>0.0003391487543622021</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006273393668590564</v>
+        <v>0.004801492528435473</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000059521449991</v>
+        <v>1.000034867510043</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006540465024777621</v>
+        <v>0.005005902005830726</v>
       </c>
       <c r="P4" t="n">
-        <v>102.2857512632173</v>
+        <v>103.3553138639085</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.2596600828135</v>
+        <v>153.3292226835047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_3</t>
+          <t>model_24_6_13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999637329553227</v>
+        <v>0.9999791751302994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9992141580289142</v>
+        <v>0.9990123455410882</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999178442018423</v>
+        <v>0.9999189377783139</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999861438330403</v>
+        <v>0.9999118725692718</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999615615044783</v>
+        <v>0.9999240788152913</v>
       </c>
       <c r="G5" t="n">
-        <v>3.38536942669483e-05</v>
+        <v>1.943910175935113e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000733548985532758</v>
+        <v>0.0009219320843739153</v>
       </c>
       <c r="I5" t="n">
-        <v>4.011435478211991e-05</v>
+        <v>3.750534138136201e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.011058091120217e-05</v>
+        <v>7.164398518923785e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.511246784666104e-05</v>
+        <v>5.457466328529993e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003761798618424733</v>
+        <v>0.0003214212236530088</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005818392756332997</v>
+        <v>0.004408979673274887</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000051200533662</v>
+        <v>1.000029399816048</v>
       </c>
       <c r="O5" t="n">
-        <v>0.006066093781703516</v>
+        <v>0.004596679065812331</v>
       </c>
       <c r="P5" t="n">
-        <v>102.5869248563332</v>
+        <v>103.6964479315884</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.5608336759294</v>
+        <v>153.6703567511846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_4</t>
+          <t>model_24_6_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999968111207467</v>
+        <v>0.9999733796968038</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991946799273009</v>
+        <v>0.9990121753709176</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999094972314235</v>
+        <v>0.9999385336205099</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999828003264845</v>
+        <v>0.9998787930264091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999565751831377</v>
+        <v>0.9999116796691128</v>
       </c>
       <c r="G6" t="n">
-        <v>2.976678807339013e-05</v>
+        <v>2.484888453740701e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007517309383988358</v>
+        <v>0.0009220909307586318</v>
       </c>
       <c r="I6" t="n">
-        <v>4.418994457908041e-05</v>
+        <v>2.843886459440551e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.25502739127498e-05</v>
+        <v>9.853629623627108e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.83701092459151e-05</v>
+        <v>6.348758041533829e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003709193285974308</v>
+        <v>0.0003464172866801594</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005455894800432843</v>
+        <v>0.004984865548578719</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000045019471811</v>
+        <v>1.000037581604512</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005688163537346476</v>
+        <v>0.00519708159507595</v>
       </c>
       <c r="P6" t="n">
-        <v>102.8442345602898</v>
+        <v>103.2053953885197</v>
       </c>
       <c r="Q6" t="n">
-        <v>152.8181433798861</v>
+        <v>153.1793042081159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_5</t>
+          <t>model_24_6_14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999712978018258</v>
+        <v>0.9999800285405986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991750673307483</v>
+        <v>0.9990120320253291</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999003057890492</v>
+        <v>0.9999149440544386</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999794544052536</v>
+        <v>0.9999174179523523</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999951271944712</v>
+        <v>0.9999259292994964</v>
       </c>
       <c r="G7" t="n">
-        <v>2.679224211471654e-05</v>
+        <v>1.864248070536879e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007700384363872582</v>
+        <v>0.0009222247375732875</v>
       </c>
       <c r="I7" t="n">
-        <v>4.867786616990779e-05</v>
+        <v>3.935313156287426e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.499172885666763e-05</v>
+        <v>6.71358162796614e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.183479751328771e-05</v>
+        <v>5.324447392126783e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003655566976968063</v>
+        <v>0.0003164992708251359</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005176122304845253</v>
+        <v>0.004317693910569483</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000040520750364</v>
+        <v>1.000028195001508</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005396480547412816</v>
+        <v>0.004501507079200977</v>
       </c>
       <c r="P7" t="n">
-        <v>103.0547963713689</v>
+        <v>103.7801353450198</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.0287051909651</v>
+        <v>153.754044164616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_6</t>
+          <t>model_24_6_15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999735288397377</v>
+        <v>0.9999807199820964</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991558181679246</v>
+        <v>0.9990116037824469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998907091728024</v>
+        <v>0.9999112773480423</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999758543197762</v>
+        <v>0.9999221368175097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999945675361253</v>
+        <v>0.9999274176531787</v>
       </c>
       <c r="G8" t="n">
-        <v>2.470966615528425e-05</v>
+        <v>1.79970504180551e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007880066849425578</v>
+        <v>0.0009226244835060942</v>
       </c>
       <c r="I8" t="n">
-        <v>5.336362271373482e-05</v>
+        <v>4.104961942463014e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.761864260649139e-05</v>
+        <v>6.329957252840121e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.54911326601131e-05</v>
+        <v>5.217459597651568e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003610064202261349</v>
+        <v>0.0003120477796975374</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004970881828738664</v>
+        <v>0.004242293061311901</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000037371049782</v>
+        <v>1.000027218848805</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005182502559332014</v>
+        <v>0.004422896259689225</v>
       </c>
       <c r="P8" t="n">
-        <v>103.2166320971312</v>
+        <v>103.8506053583183</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.1905409167274</v>
+        <v>153.8245141779146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_7</t>
+          <t>model_24_6_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999749828565144</v>
+        <v>0.9999710205169393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991371772578984</v>
+        <v>0.9990114496863454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998807943828933</v>
+        <v>0.9999441435285494</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999718043774141</v>
+        <v>0.9998666951451268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999397086601813</v>
+        <v>0.9999066440600324</v>
       </c>
       <c r="G9" t="n">
-        <v>2.335240531804799e-05</v>
+        <v>2.705107538489968e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008054071562106297</v>
+        <v>0.0009227683254529208</v>
       </c>
       <c r="I9" t="n">
-        <v>5.820473446627143e-05</v>
+        <v>2.584330883776606e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>2.057380835017999e-05</v>
+        <v>0.0001083713773257363</v>
       </c>
       <c r="K9" t="n">
-        <v>3.938927140822571e-05</v>
+        <v>6.710734308175117e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003566088820840166</v>
+        <v>0.0003545119366254756</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004832432650130573</v>
+        <v>0.005201064831830082</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000035318320215</v>
+        <v>1.00004091221138</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005038159312561267</v>
+        <v>0.005422484929409538</v>
       </c>
       <c r="P9" t="n">
-        <v>103.3296211353502</v>
+        <v>103.0355675960257</v>
       </c>
       <c r="Q9" t="n">
-        <v>153.3035299549465</v>
+        <v>153.0094764156219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_8</t>
+          <t>model_24_6_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999758286547881</v>
+        <v>0.9999812818635997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991193678198281</v>
+        <v>0.9990111456109082</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998709148020646</v>
+        <v>0.9999078721858751</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999673239013885</v>
+        <v>0.9999262213645144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999335146871607</v>
+        <v>0.9999286314890146</v>
       </c>
       <c r="G10" t="n">
-        <v>2.256288975587076e-05</v>
+        <v>1.747255869842239e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008220314849052623</v>
+        <v>0.0009230521665260725</v>
       </c>
       <c r="I10" t="n">
-        <v>6.302865461984173e-05</v>
+        <v>4.262509770395528e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>2.384312630140124e-05</v>
+        <v>5.997900340838272e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>4.343589046062148e-05</v>
+        <v>5.130205055616901e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00035222431403334</v>
+        <v>0.0003080238597474282</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004750041026756586</v>
+        <v>0.004180018983021775</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000034124252064</v>
+        <v>1.00002642560433</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004952260107206076</v>
+        <v>0.004357971044961174</v>
       </c>
       <c r="P10" t="n">
-        <v>103.3984080950439</v>
+        <v>103.9097579642521</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.3723169146401</v>
+        <v>153.8836667838483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_9</t>
+          <t>model_24_6_17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999761896212983</v>
+        <v>0.9999817425264603</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991024545775185</v>
+        <v>0.9990106583113908</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998611448125635</v>
+        <v>0.9999048090117277</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999623993826071</v>
+        <v>0.9999297434384354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.99992711369383</v>
+        <v>0.9999296373219561</v>
       </c>
       <c r="G11" t="n">
-        <v>2.222594336321497e-05</v>
+        <v>1.704255013884605e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000837819254195799</v>
+        <v>0.0009235070392355803</v>
       </c>
       <c r="I11" t="n">
-        <v>6.779906442478067e-05</v>
+        <v>4.404234719105056e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.743645378757367e-05</v>
+        <v>5.711570182617496e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>4.761775910617718e-05</v>
+        <v>5.057902450861275e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003479799466935573</v>
+        <v>0.0003043656861686878</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004714439877993457</v>
+        <v>0.004128262363131255</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000033614652285</v>
+        <v>1.000025775256762</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004915143343835564</v>
+        <v>0.004304011038610942</v>
       </c>
       <c r="P11" t="n">
-        <v>103.4285006628524</v>
+        <v>103.9595947834498</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.4024094824486</v>
+        <v>153.933503603046</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_10</t>
+          <t>model_24_6_7</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999761697155775</v>
+        <v>0.9999681380430263</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990865074112639</v>
+        <v>0.9990102108468436</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998515974785037</v>
+        <v>0.9999502607362285</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999570836902414</v>
+        <v>0.9998523794431018</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999205774553329</v>
+        <v>0.9999005175975341</v>
       </c>
       <c r="G12" t="n">
-        <v>2.224452447990303e-05</v>
+        <v>2.974173825669644e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008527052338947922</v>
+        <v>0.0009239247277490104</v>
       </c>
       <c r="I12" t="n">
-        <v>7.246075786922313e-05</v>
+        <v>2.301303898416775e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.131521318175253e-05</v>
+        <v>0.0001200094556786438</v>
       </c>
       <c r="K12" t="n">
-        <v>5.188798552548783e-05</v>
+        <v>7.151124733140576e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003439968385295838</v>
+        <v>0.0003631797469888202</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004716410126346418</v>
+        <v>0.005453598651963347</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000033642754479</v>
+        <v>1.000044981586316</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004917197469739886</v>
+        <v>0.00568576963708295</v>
       </c>
       <c r="P12" t="n">
-        <v>103.4268293408564</v>
+        <v>102.8459183403945</v>
       </c>
       <c r="Q12" t="n">
-        <v>153.4007381604526</v>
+        <v>152.8198271599908</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_11</t>
+          <t>model_24_6_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999758492519213</v>
+        <v>0.9999821127977491</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990714817478674</v>
+        <v>0.9990101673942537</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998423029069567</v>
+        <v>0.9999019312153276</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999514461763641</v>
+        <v>0.9999327963021587</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999139559515874</v>
+        <v>0.9999304374887605</v>
       </c>
       <c r="G13" t="n">
-        <v>2.254366323614442e-05</v>
+        <v>1.669691814377565e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000866731031124992</v>
+        <v>0.0009239652888342526</v>
       </c>
       <c r="I13" t="n">
-        <v>7.699903452097412e-05</v>
+        <v>4.537382730805533e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.542879959857303e-05</v>
+        <v>5.463384888247786e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>5.621391705977358e-05</v>
+        <v>5.00038380952666e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003452974948339017</v>
+        <v>0.0003011490437270019</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004748016768730332</v>
+        <v>0.004086186259065493</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000034095173758</v>
+        <v>1.000025252520825</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004950149672324853</v>
+        <v>0.004260143667685558</v>
       </c>
       <c r="P13" t="n">
-        <v>103.4001130819795</v>
+        <v>104.0005727957209</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.3740219015758</v>
+        <v>153.9744816153172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_12</t>
+          <t>model_24_6_19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999975316866316</v>
+        <v>0.9999824132754357</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999057526926228</v>
+        <v>0.9990096463491314</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998334476176095</v>
+        <v>0.9998993332520378</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999456246087963</v>
+        <v>0.9999354242131476</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999073958183484</v>
+        <v>0.9999310874136226</v>
       </c>
       <c r="G14" t="n">
-        <v>2.304062182966108e-05</v>
+        <v>1.641643541283676e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008797572445795108</v>
+        <v>0.0009244516615847785</v>
       </c>
       <c r="I14" t="n">
-        <v>8.13228220872681e-05</v>
+        <v>4.657583606193634e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.967668648497227e-05</v>
+        <v>5.249746507537841e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>6.049975428612018e-05</v>
+        <v>4.953665056865738e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003502534535553998</v>
+        <v>0.0002982100649303024</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004800064773485987</v>
+        <v>0.004051720056079487</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000034846776966</v>
+        <v>1.000024828317032</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00500441346839718</v>
+        <v>0.004224210167083561</v>
       </c>
       <c r="P14" t="n">
-        <v>103.3565034667324</v>
+        <v>104.0344551312824</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.3304122863286</v>
+        <v>154.0083639508786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_13</t>
+          <t>model_24_6_20</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999974641767843</v>
+        <v>0.9999826600253399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990446434831847</v>
+        <v>0.9990091562316287</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998251515068577</v>
+        <v>0.9998969679204432</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999939743441754</v>
+        <v>0.9999377188172363</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999010113601703</v>
+        <v>0.9999316237291457</v>
       </c>
       <c r="G15" t="n">
-        <v>2.367079662085366e-05</v>
+        <v>1.618610520830852e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000891783373142648</v>
+        <v>0.000924909164759941</v>
       </c>
       <c r="I15" t="n">
-        <v>8.53735785459969e-05</v>
+        <v>4.767021229650579e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>4.396806197192966e-05</v>
+        <v>5.06320461022e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>6.467082025896328e-05</v>
+        <v>4.915112919935289e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003548544761319339</v>
+        <v>0.0002955367307288269</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004865264290956212</v>
+        <v>0.00402319589484635</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000035799857163</v>
+        <v>1.000024479964226</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00507238866430772</v>
+        <v>0.004194471673253575</v>
       </c>
       <c r="P15" t="n">
-        <v>103.3025369594176</v>
+        <v>104.0627147739092</v>
       </c>
       <c r="Q15" t="n">
-        <v>153.2764457790139</v>
+        <v>154.0366235935055</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_14</t>
+          <t>model_24_6_21</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999738694519575</v>
+        <v>0.9999828604218298</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990327676687215</v>
+        <v>0.9990086917328024</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998173797064441</v>
+        <v>0.9998948016120713</v>
       </c>
       <c r="E16" t="n">
-        <v>0.99993390131799</v>
+        <v>0.9999397281602024</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998948446337202</v>
+        <v>0.9999320627878709</v>
       </c>
       <c r="G16" t="n">
-        <v>2.439171959910621e-05</v>
+        <v>1.599904388128021e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009028689246560397</v>
+        <v>0.0009253427540250917</v>
       </c>
       <c r="I16" t="n">
-        <v>8.916832908186405e-05</v>
+        <v>4.867250576113531e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>4.823094832290929e-05</v>
+        <v>4.899853271685896e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>6.869963870238666e-05</v>
+        <v>4.883551923899713e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003591956764475348</v>
+        <v>0.0002931401005812686</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004938797383888735</v>
+        <v>0.003999880483374497</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000036890185472</v>
+        <v>1.000024197051534</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005149052213240866</v>
+        <v>0.004170163676445812</v>
       </c>
       <c r="P16" t="n">
-        <v>103.2425336879067</v>
+        <v>104.0859631898601</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.216442507503</v>
+        <v>154.0598720094563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_15</t>
+          <t>model_24_6_6</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999730284488474</v>
+        <v>0.9999646021438029</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990218049598112</v>
+        <v>0.9990084078967693</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998100670331436</v>
+        <v>0.9999565353558848</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999281238382415</v>
+        <v>0.9998355552990219</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998888855774312</v>
+        <v>0.9998930233418596</v>
       </c>
       <c r="G17" t="n">
-        <v>2.517675908667421e-05</v>
+        <v>3.304234497369549e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009131021322164777</v>
+        <v>0.0009256077025030952</v>
       </c>
       <c r="I17" t="n">
-        <v>9.273890082195969e-05</v>
+        <v>2.010993878099634e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>5.244666516799949e-05</v>
+        <v>0.000133686794497248</v>
       </c>
       <c r="K17" t="n">
-        <v>7.259278299497959e-05</v>
+        <v>7.689836663912219e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003633284742473311</v>
+        <v>0.0003728726026997489</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005017644774859437</v>
+        <v>0.005748247121835968</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00003807748398</v>
+        <v>1.000049973444043</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005231256300881792</v>
+        <v>0.005992961902324467</v>
       </c>
       <c r="P17" t="n">
-        <v>103.1791784949084</v>
+        <v>102.6354412760998</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.1530873145046</v>
+        <v>152.609350095696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_16</t>
+          <t>model_24_6_22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999721519456818</v>
+        <v>0.9999830255850104</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990117398598003</v>
+        <v>0.9990082461447524</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998032600656203</v>
+        <v>0.9998928612906094</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999224891741307</v>
+        <v>0.9999414736702529</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998831952516782</v>
+        <v>0.9999324253843574</v>
       </c>
       <c r="G18" t="n">
-        <v>2.599493631773259e-05</v>
+        <v>1.5844871302047e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009224974612698703</v>
+        <v>0.00092575869091071</v>
       </c>
       <c r="I18" t="n">
-        <v>9.606255072056432e-05</v>
+        <v>4.957024107247611e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>5.65581721644414e-05</v>
+        <v>4.757950466653786e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>7.631036144250286e-05</v>
+        <v>4.857487286950698e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003672017093545682</v>
+        <v>0.0002909471825471611</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005098522954516591</v>
+        <v>0.003980561681728723</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000039314900214</v>
+        <v>1.000023963879985</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005315577632087863</v>
+        <v>0.004150022433418544</v>
       </c>
       <c r="P18" t="n">
-        <v>103.1152175918414</v>
+        <v>104.1053293743226</v>
       </c>
       <c r="Q18" t="n">
-        <v>153.0891264114376</v>
+        <v>154.0792381939188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_17</t>
+          <t>model_24_6_23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999712722828116</v>
+        <v>0.9999831570287921</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990025404386564</v>
+        <v>0.9990078184330335</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9997969757186398</v>
+        <v>0.9998910751098139</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999170902773342</v>
+        <v>0.9999430029637002</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998778318856476</v>
+        <v>0.9999327153225172</v>
       </c>
       <c r="G19" t="n">
-        <v>2.681606299437228e-05</v>
+        <v>1.572217430154014e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009310847170997204</v>
+        <v>0.0009261579410258704</v>
       </c>
       <c r="I19" t="n">
-        <v>9.913101977572165e-05</v>
+        <v>5.039665958297623e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>6.049764424576705e-05</v>
+        <v>4.633625184298415e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>7.981433201074436e-05</v>
+        <v>4.836645571298019e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003707339104098844</v>
+        <v>0.0002890147374510301</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005178422828851684</v>
+        <v>0.003965119708349314</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000040556777207</v>
+        <v>1.000023778312293</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005398879009488942</v>
+        <v>0.004133923063263082</v>
       </c>
       <c r="P19" t="n">
-        <v>103.0530189690671</v>
+        <v>104.1208769323608</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.0269277886633</v>
+        <v>154.0947857519571</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_18</t>
+          <t>model_24_6_24</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999704014856098</v>
+        <v>0.999983264855991</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989941321234191</v>
+        <v>0.9990074150083871</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9997911853949798</v>
+        <v>0.99988945858518</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999119162125008</v>
+        <v>0.9999443380548606</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998727786861279</v>
+        <v>0.9999329500440503</v>
       </c>
       <c r="G20" t="n">
-        <v>2.762891395867739e-05</v>
+        <v>1.562152234447066e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009389335102913398</v>
+        <v>0.0009265345202250201</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001019582712030297</v>
+        <v>5.114458268433685e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>6.4273060729337e-05</v>
+        <v>4.525087751021965e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>8.311566596618334e-05</v>
+        <v>4.819773009727826e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003739867398164724</v>
+        <v>0.0002872479756352172</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005256321333278378</v>
+        <v>0.003952407158235429</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000041786137963</v>
+        <v>1.00002362608566</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005480093814521215</v>
+        <v>0.004120669313572242</v>
       </c>
       <c r="P20" t="n">
-        <v>102.9932954528004</v>
+        <v>104.1337219141361</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.9672042723966</v>
+        <v>154.1076307337323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_19</t>
+          <t>model_24_6_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999695564860424</v>
+        <v>0.9999602772137887</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989864693433258</v>
+        <v>0.9990058119080064</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997858621415907</v>
+        <v>0.9999630334320718</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999070303236853</v>
+        <v>0.9998156561660797</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998680609552383</v>
+        <v>0.9998838621816977</v>
       </c>
       <c r="G21" t="n">
-        <v>2.841768396366211e-05</v>
+        <v>3.707947729949644e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009460863791512691</v>
+        <v>0.0009280309440624674</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001045574654148978</v>
+        <v>1.710345116384045e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>6.783820066559462e-05</v>
+        <v>0.0001498639730897706</v>
       </c>
       <c r="K21" t="n">
-        <v>8.619783304024623e-05</v>
+        <v>8.348371212680551e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003769496533617984</v>
+        <v>0.0003834625849126246</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005330823947914816</v>
+        <v>0.006089292019561588</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000042979078528</v>
+        <v>1.000056079227593</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005557768159704399</v>
+        <v>0.00634852578740653</v>
       </c>
       <c r="P21" t="n">
-        <v>102.9369978636036</v>
+        <v>102.4048938278551</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.9109066831998</v>
+        <v>152.3788026474514</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_20</t>
+          <t>model_24_6_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999968740162665</v>
+        <v>0.9999549968440603</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989794899724413</v>
+        <v>0.9990023183708802</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997809818242839</v>
+        <v>0.9999696647368569</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999024125018799</v>
+        <v>0.9997922000673632</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998636584445696</v>
+        <v>0.9998727325355653</v>
       </c>
       <c r="G22" t="n">
-        <v>2.917968600393346e-05</v>
+        <v>4.200847065947965e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009526013155129838</v>
+        <v>0.0009312920076211757</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001069403864537639</v>
+        <v>1.403532220572379e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>7.120773721437632e-05</v>
+        <v>0.0001689328189093646</v>
       </c>
       <c r="K22" t="n">
-        <v>8.907406183407013e-05</v>
+        <v>9.148407055754422e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003797139308910325</v>
+        <v>0.0003949829477107293</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005401822470605033</v>
+        <v>0.006481394191027086</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000044131535061</v>
+        <v>1.000063533867209</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005631789236492743</v>
+        <v>0.006757320560074705</v>
       </c>
       <c r="P22" t="n">
-        <v>102.8840755511756</v>
+        <v>102.155278555295</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.8579843707718</v>
+        <v>152.1291873748912</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_21</t>
+          <t>model_24_6_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999679658998101</v>
+        <v>0.9999485341455812</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989731466645489</v>
+        <v>0.9989975395693311</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997765172052268</v>
+        <v>0.9999762653050905</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998981088722376</v>
+        <v>0.999764356283211</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998595857741692</v>
+        <v>0.9998591118876725</v>
       </c>
       <c r="G23" t="n">
-        <v>2.990242639277238e-05</v>
+        <v>4.804111601003671e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009585225149915036</v>
+        <v>0.0009357528091021234</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001091203337835917</v>
+        <v>1.098141423522157e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>7.43480137307992e-05</v>
+        <v>0.0001915686729554609</v>
       </c>
       <c r="K23" t="n">
-        <v>9.173480084305569e-05</v>
+        <v>0.0001012750435953413</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003821888915557717</v>
+        <v>0.0004074469504955254</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005468311109727791</v>
+        <v>0.006931169887546886</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000045224612033</v>
+        <v>1.000072657676827</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005701108434633412</v>
+        <v>0.007226244139159398</v>
       </c>
       <c r="P23" t="n">
-        <v>102.8351418612004</v>
+        <v>101.8869066603445</v>
       </c>
       <c r="Q23" t="n">
-        <v>152.8090506807966</v>
+        <v>151.8608154799408</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_22</t>
+          <t>model_24_6_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999672244961035</v>
+        <v>0.9999406211366547</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989673608857417</v>
+        <v>0.9989912686919789</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9997723914916214</v>
+        <v>0.9999825733437551</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998940468157889</v>
+        <v>0.9997313355008551</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998557765734198</v>
+        <v>0.9998424696534191</v>
       </c>
       <c r="G24" t="n">
-        <v>3.059449420895919e-05</v>
+        <v>5.542756250193159e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009639232855417066</v>
+        <v>0.0009416063978507569</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001111348031577074</v>
+        <v>8.062851942694144e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>7.731201889259327e-05</v>
+        <v>0.0002184132141214928</v>
       </c>
       <c r="K24" t="n">
-        <v>9.422341102515033e-05</v>
+        <v>0.0001132380330320935</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003845155167334326</v>
+        <v>0.0004268212828474647</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005531228996250218</v>
+        <v>0.007444968938950088</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000046271299619</v>
+        <v>1.000083828983546</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00576670486584308</v>
+        <v>0.007761916679891495</v>
       </c>
       <c r="P24" t="n">
-        <v>102.7893809860134</v>
+        <v>101.6008671396934</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.7632898056096</v>
+        <v>151.5747759592897</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_23</t>
+          <t>model_24_6_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999665305575947</v>
+        <v>0.9999309512811215</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989621132513375</v>
+        <v>0.9989831433569695</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999768635515643</v>
+        <v>0.9999884395332236</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998902913323359</v>
+        <v>0.9996921649014605</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998522757831462</v>
+        <v>0.9998222076772753</v>
       </c>
       <c r="G25" t="n">
-        <v>3.124225534666356e-05</v>
+        <v>6.445394818459623e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.000968821721913453</v>
+        <v>0.0009491910414210352</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001129687400962094</v>
+        <v>5.348721561772649e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>8.005232358311953e-05</v>
+        <v>0.0002502573042043524</v>
       </c>
       <c r="K25" t="n">
-        <v>9.651053183966449e-05</v>
+        <v>0.0001278030128830625</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003866175285403552</v>
+        <v>0.0004481591038722298</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005589477197973309</v>
+        <v>0.008028321629369131</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000047250977513</v>
+        <v>1.000097480544299</v>
       </c>
       <c r="O25" t="n">
-        <v>0.005827432814103923</v>
+        <v>0.008370103902048221</v>
       </c>
       <c r="P25" t="n">
-        <v>102.7474780828066</v>
+        <v>101.299119141606</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.7213869024028</v>
+        <v>151.2730279612022</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_24</t>
+          <t>model_24_6_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999658794790165</v>
+        <v>0.9999191556997833</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989573492574885</v>
+        <v>0.998972729748935</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997651977119441</v>
+        <v>0.9999935351311827</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998868003060649</v>
+        <v>0.9996456652717389</v>
       </c>
       <c r="F26" t="n">
-        <v>0.99984904157453</v>
+        <v>0.9997975533513033</v>
       </c>
       <c r="G26" t="n">
-        <v>3.185000862034372e-05</v>
+        <v>7.546460559767283e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009732687010564277</v>
+        <v>0.0009589116874166463</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001146473225011462</v>
+        <v>2.991123447325134e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>8.259965890883738e-05</v>
+        <v>0.0002880595952226861</v>
       </c>
       <c r="K26" t="n">
-        <v>9.862349070499181e-05</v>
+        <v>0.0001455253593350056</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003885613223796974</v>
+        <v>0.0004714865876230549</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005643581187538965</v>
+        <v>0.008687036640746534</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000048170147271</v>
+        <v>1.000114133129718</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005883840122516088</v>
+        <v>0.009056861775188014</v>
       </c>
       <c r="P26" t="n">
-        <v>102.7089458105834</v>
+        <v>100.9836936233224</v>
       </c>
       <c r="Q26" t="n">
-        <v>152.6828546301796</v>
+        <v>150.9576024429186</v>
       </c>
     </row>
   </sheetData>
